--- a/medicine/Enfance/Fernando_Aramburu/Fernando_Aramburu.xlsx
+++ b/medicine/Enfance/Fernando_Aramburu/Fernando_Aramburu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fernando Aramburu Irigoyen, né en 1959 à Saint-Sébastien (province du Guipuscoa, Espagne), est un écrivain espagnol. Prix national de littérature narrative en 2017[1], il écrit régulièrement dans la presse espagnole et ses romans ont été traduits dans plusieurs langues.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fernando Aramburu Irigoyen, né en 1959 à Saint-Sébastien (province du Guipuscoa, Espagne), est un écrivain espagnol. Prix national de littérature narrative en 2017, il écrit régulièrement dans la presse espagnole et ses romans ont été traduits dans plusieurs langues.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernando Aramburu obtient une licence en philologie hispanique à l'université de Saragosse en 1982. À Saint-Sébastien, sa ville natale, il participe à la fondation du Grupo CLOC de Arte y Desarte, qui édite entre 1978 et 1981 une revue.
-Depuis 1985, il vit en Allemagne où il donne des cours d'espagnol. En 1996, il publie Fuegos con limón, roman basé sur ses expériences de jeunesse au sein du groupe CLOC. En 2006, il publie le recueil de nouvelles Les poissons de l'amertume (Los peces de la amargura), dans lequel il aborde les ravages causés par le groupe terroriste ETA[2].
-En 2009, il abandonne son poste de professeur pour se consacrer entièrement à la création littéraire et obtient en 2011 le prix Tusquets pour son roman Années lentes (Años lentos)[3],[4].
-En septembre 2016, il publie le roman Patria, qui reprend le sujet du terrorisme de l'ETA abordé dans Les poissons de l'amertume en décrivant la vie dans une petite localité du Pays basque marquée par l'action des terroristes[5],[6]. Ce roman remporte un grand succès critique et public[7] et obtient de nombreux prix, dont le Prix national de littérature narrative en octobre 2017.
+Depuis 1985, il vit en Allemagne où il donne des cours d'espagnol. En 1996, il publie Fuegos con limón, roman basé sur ses expériences de jeunesse au sein du groupe CLOC. En 2006, il publie le recueil de nouvelles Les poissons de l'amertume (Los peces de la amargura), dans lequel il aborde les ravages causés par le groupe terroriste ETA.
+En 2009, il abandonne son poste de professeur pour se consacrer entièrement à la création littéraire et obtient en 2011 le prix Tusquets pour son roman Années lentes (Años lentos),.
+En septembre 2016, il publie le roman Patria, qui reprend le sujet du terrorisme de l'ETA abordé dans Les poissons de l'amertume en décrivant la vie dans une petite localité du Pays basque marquée par l'action des terroristes,. Ce roman remporte un grand succès critique et public et obtient de nombreux prix, dont le Prix national de littérature narrative en octobre 2017.
 </t>
         </is>
       </c>
@@ -547,46 +561,296 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Trilogie de Antìbula
-Los ojos vacìos, 2000 (Los ojos vacíos)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Trilogie de Antìbula</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Los ojos vacìos, 2000 (Los ojos vacíos)
 Bami sin sombra, 2005
-La gran Marivián, 2013
-Autres romans
-Fuegos con limón, Tusquets Editores, 1996
+La gran Marivián, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fuegos con limón, Tusquets Editores, 1996
 El trompetista del Utopía, 2003
 Viage con Clara por Alemania, 2010 (Viaje con Clara por Alemania)
 Años lentos, 2012 Publié en français sous le titre Années lentes, traduit par Serge Mestre, Paris, Éditions Jean-Claude Lattès, 2014
-Ávidas pretensiones, Seix Barral, 2014[8] - Prix Biblioteca Breve 2014
+Ávidas pretensiones, Seix Barral, 2014 - Prix Biblioteca Breve 2014
 Patria, Tusquets, 2016 - Prix national de littérature narrative 2017 ; Prix Euskadi - Littérature en langue espagnole 2017 Publié en français sous le titre Patria, traduit par Claude Bleton, Arles, Actes Sud, 2018
-Los vencejos, Tusquets, 2021 Publié en français sous le titre Oiseaux de passage, traduit par Claude Bleton, Arles, Actes Sud, 2023
-Recueils de nouvelles
-No ser no duele, 1997. Publié en français sous le titre Le Salon des incurables, traduit par Vincent Ozanam, Paris, Buchet-Chastel, 2009
+Los vencejos, Tusquets, 2021 Publié en français sous le titre Oiseaux de passage, traduit par Claude Bleton, Arles, Actes Sud, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No ser no duele, 1997. Publié en français sous le titre Le Salon des incurables, traduit par Vincent Ozanam, Paris, Buchet-Chastel, 2009
 El artista y su cadáver, 2002 Textes brefs, blagues surréalistes et microrécits
 Los peces de la amargura, 2006 Récits autour des victimes du terrorisme de l'ETA
-El vigilante del fiordo, 2011
-Essai
-Las letras entornadas, 2015
-Livres pour enfants
-El ladrón de ladrillos, cuento, 1998
+El vigilante del fiordo, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Las letras entornadas, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>El ladrón de ladrillos, cuento, 1998
 Mariluz y los niños voladores, cuento, 2003
 Vida de un piojo llamado Matías, novela, 2004
-Mariluz y sus extrañas aventuras, tres cuentos, 2013
-Poésie
-El librillo, poemas para niños; 1981
+Mariluz y sus extrañas aventuras, tres cuentos, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>El librillo, poemas para niños; 1981
 Ave Sombra/Itzal Hegazti, edición bilingüe español/euskera; 1981
 Bruma y conciencia/Lambroa eta kontzientzia (1977-1990), edición bilingüe español/euskera; Universidad del País Vasco, Servicio Editorial, 1993
 El librillo, poemas para niños; Hiperión, Madrid, 1995
-Yo quisiera llover, selección de poemas por Juan Manuel Díaz de Guereñu; Editorial Demipage, Madrid, 2010
-Traductions
-El brezal de Brand de Arno Schmidt, Ed. Laetoli, Pamplona, 2006
+Yo quisiera llover, selección de poemas por Juan Manuel Díaz de Guereñu; Editorial Demipage, Madrid, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>El brezal de Brand de Arno Schmidt, Ed. Laetoli, Pamplona, 2006
 Montauk de Max Frisch, Editorial Laetoli, Pamplona, 2006
 Obras completas de Wolfgang Borchert, Editorial Laetoli, Pamplona, 2007
 Hermanos de sangre de Ernst Haffner, Seix Barral, Barcelona, 2015
-La matanza de Rechnitz. Historia de mi familia de Sacha Batthyany, Seix Barral, Barcelona, 2017
-Adaptations
-Le roman El trompetista del Utopía a été adapté au cinéma sous le titre Bajo las estrellas (2007) par le réalisateur Félix Viscarret. Ce film a remporté en 2008 deux Prix Goya : Prix Goya du meilleur acteur pour Alberto San Juan et Prix Goya du meilleur scénario adapté.
-Le roman Patria a été adapté en 2020 sous la forme d'une série télévisée du même nom[9].</t>
+La matanza de Rechnitz. Historia de mi familia de Sacha Batthyany, Seix Barral, Barcelona, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fernando_Aramburu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le roman El trompetista del Utopía a été adapté au cinéma sous le titre Bajo las estrellas (2007) par le réalisateur Félix Viscarret. Ce film a remporté en 2008 deux Prix Goya : Prix Goya du meilleur acteur pour Alberto San Juan et Prix Goya du meilleur scénario adapté.
+Le roman Patria a été adapté en 2020 sous la forme d'une série télévisée du même nom.</t>
         </is>
       </c>
     </row>
